--- a/public/files/product-template.xlsx
+++ b/public/files/product-template.xlsx
@@ -1,134 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pantezana\source\data\xampp\htdocs\facturacionElectronica\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\php-mvc\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DA133D-A2E9-4CA6-AFF1-A5D17FF1AA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>DESCRIPCION</t>
   </si>
   <si>
-    <t>INV_MIN</t>
-  </si>
-  <si>
-    <t>INV_MAX</t>
-  </si>
-  <si>
-    <t>PRECIO COMPRA</t>
-  </si>
-  <si>
-    <t>PRECIO 1</t>
-  </si>
-  <si>
-    <t>PRECIO 2</t>
-  </si>
-  <si>
-    <t>MAYOREO 2</t>
-  </si>
-  <si>
-    <t>PRECIO 3</t>
-  </si>
-  <si>
-    <t>MAYOREO 3</t>
-  </si>
-  <si>
-    <t>EXIST.</t>
-  </si>
-  <si>
-    <t>PESO</t>
-  </si>
-  <si>
-    <t>CATEGORIA</t>
-  </si>
-  <si>
-    <t>RECETA (S/N)</t>
-  </si>
-  <si>
-    <t>GRANEL (S/N)</t>
-  </si>
-  <si>
     <t>CODIGO</t>
   </si>
   <si>
-    <t>UM COMPRA</t>
-  </si>
-  <si>
-    <t>UM VENTA</t>
-  </si>
-  <si>
-    <t>FACTOR</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAJA C-100 </t>
   </si>
   <si>
     <t xml:space="preserve">FAJA A-105 </t>
   </si>
   <si>
-    <t>NIU</t>
-  </si>
-  <si>
-    <t>Categoria 1</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>C100OPTIBELT</t>
   </si>
   <si>
     <t>A105OPTIBELT</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>CAT. PRODUCTO SUNAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -153,9 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,7 +94,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -482,208 +403,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>874</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>191</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>504</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>239</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>4659</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3">
-        <v>10000000</v>
       </c>
     </row>
   </sheetData>
